--- a/public/data/lime/lime_table_central_african_republic.xlsx
+++ b/public/data/lime/lime_table_central_african_republic.xlsx
@@ -1399,16 +1399,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.38</v>
+        <v>0.89</v>
       </c>
       <c r="K2" t="n">
-        <v>0.36</v>
+        <v>0.07</v>
       </c>
       <c r="L2" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1428,16 +1428,16 @@
         <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>1.29</v>
+        <v>0.91</v>
       </c>
       <c r="E3" t="n">
-        <v>0.46</v>
+        <v>0.18</v>
       </c>
       <c r="F3" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1446,13 +1446,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>0.7</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3</v>
+        <v>0.07</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -1475,13 +1475,13 @@
         <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>6.48</v>
+        <v>6.09</v>
       </c>
       <c r="E4" t="n">
-        <v>5.36</v>
+        <v>4.63</v>
       </c>
       <c r="F4" t="n">
-        <v>4.16</v>
+        <v>3.12</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1493,16 +1493,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.29</v>
+        <v>2.56</v>
       </c>
       <c r="K4" t="n">
-        <v>1.85</v>
+        <v>0.62</v>
       </c>
       <c r="L4" t="n">
-        <v>0.54</v>
+        <v>0.15</v>
       </c>
       <c r="M4" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1522,13 +1522,13 @@
         <v>92</v>
       </c>
       <c r="D5" t="n">
-        <v>4.15</v>
+        <v>3.69</v>
       </c>
       <c r="E5" t="n">
-        <v>2.81</v>
+        <v>2.07</v>
       </c>
       <c r="F5" t="n">
-        <v>1.62</v>
+        <v>0.81</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -1540,16 +1540,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>5.41</v>
+        <v>4.89</v>
       </c>
       <c r="K5" t="n">
-        <v>3.81</v>
+        <v>2.8</v>
       </c>
       <c r="L5" t="n">
-        <v>2.13</v>
+        <v>0.96</v>
       </c>
       <c r="M5" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>93</v>
       </c>
       <c r="D6" t="n">
-        <v>3.78</v>
+        <v>3.02</v>
       </c>
       <c r="E6" t="n">
-        <v>2.33</v>
+        <v>1.55</v>
       </c>
       <c r="F6" t="n">
-        <v>1.39</v>
+        <v>0.84</v>
       </c>
       <c r="G6" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>4.69</v>
+        <v>4.12</v>
       </c>
       <c r="K6" t="n">
-        <v>3.15</v>
+        <v>2.23</v>
       </c>
       <c r="L6" t="n">
-        <v>1.75</v>
+        <v>0.83</v>
       </c>
       <c r="M6" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>94</v>
       </c>
       <c r="D7" t="n">
-        <v>2.36</v>
+        <v>1.93</v>
       </c>
       <c r="E7" t="n">
-        <v>1.21</v>
+        <v>0.85</v>
       </c>
       <c r="F7" t="n">
-        <v>0.65</v>
+        <v>0.32</v>
       </c>
       <c r="G7" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4.22</v>
+        <v>3.73</v>
       </c>
       <c r="K7" t="n">
-        <v>2.77</v>
+        <v>1.96</v>
       </c>
       <c r="L7" t="n">
-        <v>1.46</v>
+        <v>0.7</v>
       </c>
       <c r="M7" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>95</v>
       </c>
       <c r="D8" t="n">
-        <v>5.83</v>
+        <v>5.32</v>
       </c>
       <c r="E8" t="n">
-        <v>4.36</v>
+        <v>3.39</v>
       </c>
       <c r="F8" t="n">
-        <v>2.78</v>
+        <v>1.55</v>
       </c>
       <c r="G8" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1681,16 +1681,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>5.26</v>
+        <v>4.66</v>
       </c>
       <c r="K8" t="n">
-        <v>3.6</v>
+        <v>2.57</v>
       </c>
       <c r="L8" t="n">
-        <v>1.99</v>
+        <v>0.92</v>
       </c>
       <c r="M8" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1710,13 +1710,13 @@
         <v>97</v>
       </c>
       <c r="D9" t="n">
-        <v>4.6</v>
+        <v>4.13</v>
       </c>
       <c r="E9" t="n">
-        <v>3.36</v>
+        <v>2.35</v>
       </c>
       <c r="F9" t="n">
-        <v>1.93</v>
+        <v>0.73</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1728,16 +1728,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.48</v>
+        <v>3.87</v>
       </c>
       <c r="K9" t="n">
-        <v>3.05</v>
+        <v>1.85</v>
       </c>
       <c r="L9" t="n">
-        <v>1.55</v>
+        <v>0.44</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1757,13 +1757,13 @@
         <v>98</v>
       </c>
       <c r="D10" t="n">
-        <v>3.83</v>
+        <v>3.36</v>
       </c>
       <c r="E10" t="n">
-        <v>2.48</v>
+        <v>1.46</v>
       </c>
       <c r="F10" t="n">
-        <v>0.98</v>
+        <v>0.26</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1775,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>6.18</v>
+        <v>5.66</v>
       </c>
       <c r="K10" t="n">
-        <v>4.74</v>
+        <v>3.62</v>
       </c>
       <c r="L10" t="n">
-        <v>3.09</v>
+        <v>1.56</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>99</v>
       </c>
       <c r="D11" t="n">
-        <v>5.46</v>
+        <v>4.98</v>
       </c>
       <c r="E11" t="n">
-        <v>4.17</v>
+        <v>3.17</v>
       </c>
       <c r="F11" t="n">
-        <v>2.75</v>
+        <v>1.63</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>4.47</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>3.22</v>
+        <v>2.23</v>
       </c>
       <c r="L11" t="n">
-        <v>1.87</v>
+        <v>0.8</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1851,16 +1851,16 @@
         <v>101</v>
       </c>
       <c r="D12" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="E12" t="n">
-        <v>0.84</v>
+        <v>0.31</v>
       </c>
       <c r="F12" t="n">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="G12" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1869,16 +1869,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.99</v>
+        <v>2.54</v>
       </c>
       <c r="K12" t="n">
-        <v>1.85</v>
+        <v>1.1</v>
       </c>
       <c r="L12" t="n">
-        <v>0.83</v>
+        <v>0.27</v>
       </c>
       <c r="M12" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>102</v>
       </c>
       <c r="D13" t="n">
-        <v>1.38</v>
+        <v>1.02</v>
       </c>
       <c r="E13" t="n">
-        <v>0.64</v>
+        <v>0.21</v>
       </c>
       <c r="F13" t="n">
-        <v>0.16</v>
+        <v>0.01</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1916,16 +1916,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.32</v>
+        <v>0.94</v>
       </c>
       <c r="K13" t="n">
-        <v>0.59</v>
+        <v>0.2</v>
       </c>
       <c r="L13" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="M13" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1945,16 +1945,16 @@
         <v>103</v>
       </c>
       <c r="D14" t="n">
-        <v>1.81</v>
+        <v>1.44</v>
       </c>
       <c r="E14" t="n">
-        <v>0.97</v>
+        <v>0.37</v>
       </c>
       <c r="F14" t="n">
-        <v>0.27</v>
+        <v>0.02</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1963,16 +1963,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>2.85</v>
       </c>
       <c r="K14" t="n">
-        <v>2.24</v>
+        <v>1.38</v>
       </c>
       <c r="L14" t="n">
-        <v>1.19</v>
+        <v>0.48</v>
       </c>
       <c r="M14" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1992,16 +1992,16 @@
         <v>105</v>
       </c>
       <c r="D15" t="n">
-        <v>2.83</v>
+        <v>2.39</v>
       </c>
       <c r="E15" t="n">
-        <v>1.74</v>
+        <v>0.94</v>
       </c>
       <c r="F15" t="n">
-        <v>0.71</v>
+        <v>0.18</v>
       </c>
       <c r="G15" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -2010,16 +2010,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.83</v>
+        <v>1.39</v>
       </c>
       <c r="K15" t="n">
-        <v>0.71</v>
+        <v>0.33</v>
       </c>
       <c r="L15" t="n">
-        <v>0.17</v>
+        <v>0.03</v>
       </c>
       <c r="M15" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2039,16 +2039,16 @@
         <v>106</v>
       </c>
       <c r="D16" t="n">
-        <v>2.58</v>
+        <v>1.9</v>
       </c>
       <c r="E16" t="n">
-        <v>1.27</v>
+        <v>0.51</v>
       </c>
       <c r="F16" t="n">
-        <v>0.51</v>
+        <v>0.09</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -2057,16 +2057,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.73</v>
+        <v>2.25</v>
       </c>
       <c r="K16" t="n">
-        <v>1.42</v>
+        <v>0.76</v>
       </c>
       <c r="L16" t="n">
-        <v>0.46</v>
+        <v>0.08</v>
       </c>
       <c r="M16" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>108</v>
       </c>
       <c r="D17" t="n">
-        <v>3.12</v>
+        <v>2.63</v>
       </c>
       <c r="E17" t="n">
-        <v>2.12</v>
+        <v>1.48</v>
       </c>
       <c r="F17" t="n">
-        <v>1.36</v>
+        <v>0.78</v>
       </c>
       <c r="G17" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2104,16 +2104,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>5.18</v>
+        <v>4.68</v>
       </c>
       <c r="K17" t="n">
-        <v>3.99</v>
+        <v>3.08</v>
       </c>
       <c r="L17" t="n">
-        <v>2.76</v>
+        <v>1.53</v>
       </c>
       <c r="M17" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2133,16 +2133,16 @@
         <v>109</v>
       </c>
       <c r="D18" t="n">
-        <v>1.5</v>
+        <v>1.01</v>
       </c>
       <c r="E18" t="n">
-        <v>0.53</v>
+        <v>0.2</v>
       </c>
       <c r="F18" t="n">
-        <v>0.16</v>
+        <v>0.07</v>
       </c>
       <c r="G18" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -2151,16 +2151,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>4.45</v>
+        <v>3.97</v>
       </c>
       <c r="K18" t="n">
-        <v>3.28</v>
+        <v>2.49</v>
       </c>
       <c r="L18" t="n">
-        <v>2.19</v>
+        <v>1.19</v>
       </c>
       <c r="M18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2180,16 +2180,16 @@
         <v>110</v>
       </c>
       <c r="D19" t="n">
-        <v>2.08</v>
+        <v>1.41</v>
       </c>
       <c r="E19" t="n">
-        <v>1.02</v>
+        <v>0.19</v>
       </c>
       <c r="F19" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2198,16 +2198,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.4</v>
+        <v>0.72</v>
       </c>
       <c r="K19" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2227,16 +2227,16 @@
         <v>112</v>
       </c>
       <c r="D20" t="n">
-        <v>3.17</v>
+        <v>2.69</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1.22</v>
       </c>
       <c r="F20" t="n">
-        <v>1.01</v>
+        <v>0.37</v>
       </c>
       <c r="G20" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2245,16 +2245,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>3.2</v>
+        <v>2.69</v>
       </c>
       <c r="K20" t="n">
-        <v>1.96</v>
+        <v>1.12</v>
       </c>
       <c r="L20" t="n">
-        <v>0.88</v>
+        <v>0.26</v>
       </c>
       <c r="M20" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2274,16 +2274,16 @@
         <v>113</v>
       </c>
       <c r="D21" t="n">
-        <v>1.86</v>
+        <v>1.26</v>
       </c>
       <c r="E21" t="n">
-        <v>0.74</v>
+        <v>0.25</v>
       </c>
       <c r="F21" t="n">
-        <v>0.22</v>
+        <v>0.05</v>
       </c>
       <c r="G21" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="K21" t="n">
-        <v>1.19</v>
+        <v>0.59</v>
       </c>
       <c r="L21" t="n">
-        <v>0.49</v>
+        <v>0.17</v>
       </c>
       <c r="M21" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2321,16 +2321,16 @@
         <v>114</v>
       </c>
       <c r="D22" t="n">
-        <v>4.25</v>
+        <v>3.75</v>
       </c>
       <c r="E22" t="n">
-        <v>3.04</v>
+        <v>2.16</v>
       </c>
       <c r="F22" t="n">
-        <v>1.89</v>
+        <v>0.95</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2339,16 +2339,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>4.41</v>
+        <v>3.9</v>
       </c>
       <c r="K22" t="n">
-        <v>3.11</v>
+        <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>1.88</v>
+        <v>0.94</v>
       </c>
       <c r="M22" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>116</v>
       </c>
       <c r="D23" t="n">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="E23" t="n">
-        <v>1.27</v>
+        <v>0.66</v>
       </c>
       <c r="F23" t="n">
-        <v>0.41</v>
+        <v>0.08</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2386,16 +2386,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>3.31</v>
+        <v>2.86</v>
       </c>
       <c r="K23" t="n">
-        <v>2.06</v>
+        <v>1.26</v>
       </c>
       <c r="L23" t="n">
-        <v>0.94</v>
+        <v>0.33</v>
       </c>
       <c r="M23" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2415,13 +2415,13 @@
         <v>117</v>
       </c>
       <c r="D24" t="n">
-        <v>2.75</v>
+        <v>2.27</v>
       </c>
       <c r="E24" t="n">
-        <v>1.33</v>
+        <v>0.54</v>
       </c>
       <c r="F24" t="n">
-        <v>0.31</v>
+        <v>0.03</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2433,16 +2433,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>3.34</v>
+        <v>2.89</v>
       </c>
       <c r="K24" t="n">
-        <v>2.06</v>
+        <v>1.3</v>
       </c>
       <c r="L24" t="n">
-        <v>0.96</v>
+        <v>0.34</v>
       </c>
       <c r="M24" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2462,16 +2462,16 @@
         <v>118</v>
       </c>
       <c r="D25" t="n">
-        <v>2.76</v>
+        <v>2.24</v>
       </c>
       <c r="E25" t="n">
-        <v>1.44</v>
+        <v>0.9</v>
       </c>
       <c r="F25" t="n">
-        <v>0.63</v>
+        <v>0.22</v>
       </c>
       <c r="G25" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2480,16 +2480,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.98</v>
+        <v>3.45</v>
       </c>
       <c r="K25" t="n">
-        <v>2.56</v>
+        <v>1.69</v>
       </c>
       <c r="L25" t="n">
-        <v>1.29</v>
+        <v>0.48</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2509,13 +2509,13 @@
         <v>119</v>
       </c>
       <c r="D26" t="n">
-        <v>2.96</v>
+        <v>2.52</v>
       </c>
       <c r="E26" t="n">
-        <v>1.68</v>
+        <v>0.85</v>
       </c>
       <c r="F26" t="n">
-        <v>0.55</v>
+        <v>0.19</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -2527,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>5.61</v>
+        <v>5.1</v>
       </c>
       <c r="K26" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="L26" t="n">
-        <v>2.85</v>
+        <v>1.52</v>
       </c>
       <c r="M26" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2556,13 +2556,13 @@
         <v>121</v>
       </c>
       <c r="D27" t="n">
-        <v>3.58</v>
+        <v>3.07</v>
       </c>
       <c r="E27" t="n">
-        <v>2.32</v>
+        <v>1.21</v>
       </c>
       <c r="F27" t="n">
-        <v>0.86</v>
+        <v>0.07</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2574,16 +2574,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.71</v>
+        <v>1.26</v>
       </c>
       <c r="K27" t="n">
-        <v>0.67</v>
+        <v>0.27</v>
       </c>
       <c r="L27" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="M27" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>122</v>
       </c>
       <c r="D28" t="n">
-        <v>3.01</v>
+        <v>2.61</v>
       </c>
       <c r="E28" t="n">
-        <v>1.79</v>
+        <v>0.92</v>
       </c>
       <c r="F28" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2621,16 +2621,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.44</v>
+        <v>1.03</v>
       </c>
       <c r="K28" t="n">
-        <v>0.41</v>
+        <v>0.15</v>
       </c>
       <c r="L28" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="M28" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2650,16 +2650,16 @@
         <v>124</v>
       </c>
       <c r="D29" t="n">
-        <v>4.68</v>
+        <v>4.22</v>
       </c>
       <c r="E29" t="n">
-        <v>3.49</v>
+        <v>2.64</v>
       </c>
       <c r="F29" t="n">
-        <v>2.31</v>
+        <v>1.42</v>
       </c>
       <c r="G29" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2668,16 +2668,16 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="K29" t="n">
-        <v>3.36</v>
+        <v>2.41</v>
       </c>
       <c r="L29" t="n">
-        <v>2.09</v>
+        <v>1.01</v>
       </c>
       <c r="M29" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2697,16 +2697,16 @@
         <v>125</v>
       </c>
       <c r="D30" t="n">
-        <v>3.15</v>
+        <v>2.57</v>
       </c>
       <c r="E30" t="n">
-        <v>1.92</v>
+        <v>1.17</v>
       </c>
       <c r="F30" t="n">
-        <v>0.99</v>
+        <v>0.41</v>
       </c>
       <c r="G30" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2715,16 +2715,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>3.63</v>
+        <v>3.1</v>
       </c>
       <c r="K30" t="n">
-        <v>2.44</v>
+        <v>1.68</v>
       </c>
       <c r="L30" t="n">
-        <v>1.43</v>
+        <v>0.71</v>
       </c>
       <c r="M30" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2744,16 +2744,16 @@
         <v>126</v>
       </c>
       <c r="D31" t="n">
-        <v>3.67</v>
+        <v>3.14</v>
       </c>
       <c r="E31" t="n">
-        <v>2.41</v>
+        <v>1.37</v>
       </c>
       <c r="F31" t="n">
-        <v>1.09</v>
+        <v>0.26</v>
       </c>
       <c r="G31" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2762,16 +2762,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.46</v>
+        <v>1.91</v>
       </c>
       <c r="K31" t="n">
-        <v>1.32</v>
+        <v>0.57</v>
       </c>
       <c r="L31" t="n">
-        <v>0.46</v>
+        <v>0.08</v>
       </c>
       <c r="M31" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         <v>128</v>
       </c>
       <c r="D32" t="n">
-        <v>3.03</v>
+        <v>2.45</v>
       </c>
       <c r="E32" t="n">
-        <v>1.9</v>
+        <v>1.03</v>
       </c>
       <c r="F32" t="n">
-        <v>0.95</v>
+        <v>0.46</v>
       </c>
       <c r="G32" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2809,16 +2809,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.33</v>
+        <v>2.85</v>
       </c>
       <c r="K32" t="n">
-        <v>2.23</v>
+        <v>1.55</v>
       </c>
       <c r="L32" t="n">
-        <v>1.33</v>
+        <v>0.65</v>
       </c>
       <c r="M32" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>129</v>
       </c>
       <c r="D33" t="n">
-        <v>3.07</v>
+        <v>2.7</v>
       </c>
       <c r="E33" t="n">
-        <v>2.2</v>
+        <v>1.52</v>
       </c>
       <c r="F33" t="n">
-        <v>1.33</v>
+        <v>0.64</v>
       </c>
       <c r="G33" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2856,16 +2856,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>3.56</v>
+        <v>3.06</v>
       </c>
       <c r="K33" t="n">
-        <v>2.48</v>
+        <v>1.73</v>
       </c>
       <c r="L33" t="n">
-        <v>1.54</v>
+        <v>0.71</v>
       </c>
       <c r="M33" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2885,16 +2885,16 @@
         <v>130</v>
       </c>
       <c r="D34" t="n">
-        <v>3.43</v>
+        <v>2.76</v>
       </c>
       <c r="E34" t="n">
-        <v>2.04</v>
+        <v>1.11</v>
       </c>
       <c r="F34" t="n">
-        <v>1.06</v>
+        <v>0.41</v>
       </c>
       <c r="G34" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2903,16 +2903,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>3.09</v>
+        <v>2.56</v>
       </c>
       <c r="K34" t="n">
-        <v>1.88</v>
+        <v>1.18</v>
       </c>
       <c r="L34" t="n">
-        <v>0.96</v>
+        <v>0.36</v>
       </c>
       <c r="M34" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2932,16 +2932,16 @@
         <v>131</v>
       </c>
       <c r="D35" t="n">
-        <v>2.99</v>
+        <v>2.6</v>
       </c>
       <c r="E35" t="n">
-        <v>2.13</v>
+        <v>1.47</v>
       </c>
       <c r="F35" t="n">
-        <v>1.32</v>
+        <v>0.67</v>
       </c>
       <c r="G35" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -2950,16 +2950,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.71</v>
+        <v>3.24</v>
       </c>
       <c r="K35" t="n">
-        <v>2.65</v>
+        <v>1.87</v>
       </c>
       <c r="L35" t="n">
-        <v>1.66</v>
+        <v>0.83</v>
       </c>
       <c r="M35" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2979,7 +2979,7 @@
         <v>133</v>
       </c>
       <c r="D36" t="n">
-        <v>0.66</v>
+        <v>0.32</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.77</v>
+        <v>1.35</v>
       </c>
       <c r="K36" t="n">
-        <v>0.68</v>
+        <v>0.31</v>
       </c>
       <c r="L36" t="n">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="M36" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         <v>134</v>
       </c>
       <c r="D37" t="n">
-        <v>4.5</v>
+        <v>4.12</v>
       </c>
       <c r="E37" t="n">
-        <v>3.16</v>
+        <v>2.42</v>
       </c>
       <c r="F37" t="n">
-        <v>1.8</v>
+        <v>1.02</v>
       </c>
       <c r="G37" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3044,16 +3044,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.18</v>
+        <v>3.79</v>
       </c>
       <c r="K37" t="n">
-        <v>2.87</v>
+        <v>2.18</v>
       </c>
       <c r="L37" t="n">
-        <v>1.62</v>
+        <v>0.86</v>
       </c>
       <c r="M37" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3073,13 +3073,13 @@
         <v>135</v>
       </c>
       <c r="D38" t="n">
-        <v>3.44</v>
+        <v>3.07</v>
       </c>
       <c r="E38" t="n">
-        <v>2.15</v>
+        <v>1.34</v>
       </c>
       <c r="F38" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3091,16 +3091,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>3.21</v>
+        <v>2.81</v>
       </c>
       <c r="K38" t="n">
-        <v>1.91</v>
+        <v>1.24</v>
       </c>
       <c r="L38" t="n">
-        <v>0.78</v>
+        <v>0.23</v>
       </c>
       <c r="M38" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3120,16 +3120,16 @@
         <v>136</v>
       </c>
       <c r="D39" t="n">
-        <v>1.71</v>
+        <v>1.31</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9</v>
+        <v>0.43</v>
       </c>
       <c r="F39" t="n">
-        <v>0.36</v>
+        <v>0.03</v>
       </c>
       <c r="G39" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3138,16 +3138,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2.72</v>
+        <v>2.28</v>
       </c>
       <c r="K39" t="n">
-        <v>1.53</v>
+        <v>0.97</v>
       </c>
       <c r="L39" t="n">
-        <v>0.68</v>
+        <v>0.29</v>
       </c>
       <c r="M39" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>137</v>
       </c>
       <c r="D40" t="n">
-        <v>4.08</v>
+        <v>3.59</v>
       </c>
       <c r="E40" t="n">
-        <v>2.68</v>
+        <v>1.92</v>
       </c>
       <c r="F40" t="n">
-        <v>1.39</v>
+        <v>0.65</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3185,16 +3185,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>3.79</v>
+        <v>3.28</v>
       </c>
       <c r="K40" t="n">
-        <v>2.27</v>
+        <v>1.44</v>
       </c>
       <c r="L40" t="n">
-        <v>0.94</v>
+        <v>0.31</v>
       </c>
       <c r="M40" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.05</v>
+        <v>0.52</v>
       </c>
       <c r="K41" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3279,16 +3279,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="K42" t="n">
-        <v>0.47</v>
+        <v>0.14</v>
       </c>
       <c r="L42" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="M42" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3308,16 +3308,16 @@
         <v>141</v>
       </c>
       <c r="D43" t="n">
-        <v>2.01</v>
+        <v>1.5</v>
       </c>
       <c r="E43" t="n">
-        <v>0.91</v>
+        <v>0.46</v>
       </c>
       <c r="F43" t="n">
-        <v>0.24</v>
+        <v>0.04</v>
       </c>
       <c r="G43" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3326,16 +3326,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.73</v>
+        <v>1.21</v>
       </c>
       <c r="K43" t="n">
-        <v>0.58</v>
+        <v>0.23</v>
       </c>
       <c r="L43" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="M43" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -3420,16 +3420,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1.18</v>
+        <v>0.66</v>
       </c>
       <c r="K45" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="L45" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -3449,13 +3449,13 @@
         <v>145</v>
       </c>
       <c r="D46" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>2.34</v>
+        <v>1.44</v>
       </c>
       <c r="F46" t="n">
-        <v>1.13</v>
+        <v>0.07</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -3467,16 +3467,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>1.77</v>
+        <v>1.2</v>
       </c>
       <c r="K46" t="n">
-        <v>0.71</v>
+        <v>0.19</v>
       </c>
       <c r="L46" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="M46" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -3496,16 +3496,16 @@
         <v>146</v>
       </c>
       <c r="D47" t="n">
-        <v>2.55</v>
+        <v>1.93</v>
       </c>
       <c r="E47" t="n">
-        <v>1.42</v>
+        <v>0.79</v>
       </c>
       <c r="F47" t="n">
-        <v>0.73</v>
+        <v>0.24</v>
       </c>
       <c r="G47" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>1.84</v>
+        <v>1.24</v>
       </c>
       <c r="K47" t="n">
-        <v>0.8</v>
+        <v>0.29</v>
       </c>
       <c r="L47" t="n">
-        <v>0.26</v>
+        <v>0.05</v>
       </c>
       <c r="M47" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -3561,16 +3561,16 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.33</v>
+        <v>0.79</v>
       </c>
       <c r="K48" t="n">
-        <v>0.39</v>
+        <v>0.07</v>
       </c>
       <c r="L48" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="M48" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3590,16 +3590,16 @@
         <v>149</v>
       </c>
       <c r="D49" t="n">
-        <v>1.38</v>
+        <v>0.71</v>
       </c>
       <c r="E49" t="n">
-        <v>0.27</v>
+        <v>0.01</v>
       </c>
       <c r="F49" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -3608,16 +3608,16 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.26</v>
+        <v>0.67</v>
       </c>
       <c r="K49" t="n">
-        <v>0.31</v>
+        <v>0.05</v>
       </c>
       <c r="L49" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -3637,16 +3637,16 @@
         <v>150</v>
       </c>
       <c r="D50" t="n">
-        <v>1.82</v>
+        <v>1.31</v>
       </c>
       <c r="E50" t="n">
-        <v>0.76</v>
+        <v>0.28</v>
       </c>
       <c r="F50" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
       <c r="G50" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -3655,16 +3655,16 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.92</v>
+        <v>1.41</v>
       </c>
       <c r="K50" t="n">
-        <v>0.82</v>
+        <v>0.32</v>
       </c>
       <c r="L50" t="n">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="M50" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3684,16 +3684,16 @@
         <v>152</v>
       </c>
       <c r="D51" t="n">
-        <v>1.06</v>
+        <v>0.62</v>
       </c>
       <c r="E51" t="n">
-        <v>0.33</v>
+        <v>0.08</v>
       </c>
       <c r="F51" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -3702,13 +3702,13 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1.14</v>
+        <v>0.67</v>
       </c>
       <c r="K51" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="L51" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -3731,40 +3731,40 @@
         <v>153</v>
       </c>
       <c r="D52" t="n">
-        <v>0.75</v>
+        <v>0.41</v>
       </c>
       <c r="E52" t="n">
-        <v>0.27</v>
+        <v>0.04</v>
       </c>
       <c r="F52" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="L52" t="n">
         <v>0.11</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0.59</v>
-      </c>
       <c r="M52" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
